--- a/storage/app/public/get_local.xlsx
+++ b/storage/app/public/get_local.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Приложение 50</t>
   </si>
@@ -38,7 +38,10 @@
     <t>Заказчик:</t>
   </si>
   <si>
-    <t>Филиал №6 АО «Евразийский банк», фывфывфы</t>
+    <t>Филиал №15 АО «Евразийский банк», г.Шымкент ул Тамерлановское шоссе 1 В</t>
+  </si>
+  <si>
+    <t>051241002832</t>
   </si>
   <si>
     <t>полное наименование, адрес, данные о средствах связи</t>
@@ -47,19 +50,16 @@
     <t>Исполнитель:</t>
   </si>
   <si>
-    <t>фывфывфыв, вфывфыв</t>
-  </si>
-  <si>
-    <t>вфывфы</t>
-  </si>
-  <si>
-    <t>фывфывфыв</t>
+    <t>Мырзахметов Байдилла Абдуллаевич, г Туркестан, ул.Тауке хана,д 20</t>
+  </si>
+  <si>
+    <t>АО «Евразийский банк», БИК EURIKZKA, ИИК: KZ229480016А03448719</t>
   </si>
   <si>
     <t>Договор (контракт):</t>
   </si>
   <si>
-    <t>asdas23q31231asd от 02.08.2022г.</t>
+    <t>№15/Карточные продукты/2020-38 от 13.01.2020г.</t>
   </si>
   <si>
     <t>АКТ ВЫПОЛНЕННЫХ РАБОТ (ОКАЗАННЫХ УСЛУГ)*</t>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>01.02.2022-28.02.2022</t>
+  </si>
+  <si>
+    <t>01.03.2022-31.03.2022</t>
+  </si>
+  <si>
+    <t>01.04.2022-30.04.2022</t>
+  </si>
+  <si>
+    <t>01.05.2022-31.05.2022</t>
+  </si>
+  <si>
+    <t>01.06.2022-30.06.2022</t>
+  </si>
+  <si>
+    <t>01.07.2022-31.07.2022</t>
+  </si>
+  <si>
+    <t>01.08.2022-31.08.2022</t>
+  </si>
+  <si>
+    <t>01.09.2022-30.09.2022</t>
+  </si>
+  <si>
+    <t>01.10.2022-31.10.2022</t>
+  </si>
+  <si>
+    <t>01.11.2022-30.11.2022</t>
+  </si>
+  <si>
+    <t>01.12.2022-31.12.2022</t>
   </si>
   <si>
     <t>Итого:</t>
@@ -129,7 +159,7 @@
         <sz val="10"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">10 881 </t>
+      <t xml:space="preserve">283 314 </t>
     </r>
     <r>
       <rPr>
@@ -141,7 +171,7 @@
         <sz val="10"/>
         <u val="single"/>
       </rPr>
-      <t xml:space="preserve">(десять тысяч восемьсот восемьдесят один тенге).</t>
+      <t xml:space="preserve">(двести восемьдесят три тысячи триста четырнадцать тенге).</t>
     </r>
   </si>
   <si>
@@ -182,7 +212,7 @@
         <sz val="10"/>
         <u val="single"/>
       </rPr>
-      <t xml:space="preserve">фывфывфы</t>
+      <t xml:space="preserve">Мырзахметов Б.А.</t>
     </r>
   </si>
   <si>
@@ -196,7 +226,7 @@
         <sz val="10"/>
         <u val="single"/>
       </rPr>
-      <t xml:space="preserve">Принял (Заказчик)Заместитель директора Филиала №6</t>
+      <t xml:space="preserve">Принял (Заказчик)Заместитель директора Филиала №15</t>
     </r>
     <r>
       <t xml:space="preserve">  /_________________/</t>
@@ -238,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -293,6 +323,15 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -376,6 +415,9 @@
     </xf>
     <xf xfId="0" fontId="5" numFmtId="1" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -679,10 +721,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F29" sqref="F29:H29"/>
+      <selection activeCell="F39" sqref="F39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,8 +822,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10">
-        <v>12312312323</v>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -789,7 +831,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -799,17 +841,17 @@
     </row>
     <row r="9" spans="1:8" customHeight="1" ht="18">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10" t="s">
-        <v>11</v>
+      <c r="G9" s="10">
+        <v>720609301950</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -829,7 +871,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -967,10 +1009,10 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="14">
-        <v>1006456.0</v>
+        <v>123123123.0</v>
       </c>
       <c r="H19" s="14">
-        <v>2012.91</v>
+        <v>246246.25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -988,43 +1030,223 @@
         <v>29</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <v>4434333.0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>8868.47</v>
-      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="15" t="s">
+      <c r="A21" s="13">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="17">
-        <v>5440789.0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>10881.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="13">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <v>6</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <v>7</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14">
+        <v>18533778.56</v>
+      </c>
+      <c r="H25" s="14">
+        <v>37067.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>8</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <v>9</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>10</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13">
+        <v>11</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <v>12</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="17">
+        <v>141656901.56</v>
+      </c>
+      <c r="H31" s="17">
+        <v>283313.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">Сведения об использовании запасов, полученных от заказчика: </t>
@@ -1039,7 +1261,7 @@
               <sz val="10"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">10 881 </t>
+            <t xml:space="preserve">283 314 </t>
           </r>
           <r>
             <rPr>
@@ -1051,64 +1273,64 @@
               <sz val="10"/>
               <u val="single"/>
             </rPr>
-            <t xml:space="preserve">(десять тысяч восемьсот восемьдесят один тенге).</t>
+            <t xml:space="preserve">(двести восемьдесят три тысячи триста четырнадцать тенге).</t>
           </r>
         </is>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" customHeight="1" ht="10.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" customHeight="1" ht="10.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">Сдал(Исполнитель)</t>
@@ -1141,13 +1363,13 @@
               <sz val="10"/>
               <u val="single"/>
             </rPr>
-            <t xml:space="preserve">фывфывфы</t>
+            <t xml:space="preserve">Мырзахметов Б.А.</t>
           </r>
         </is>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -1159,161 +1381,76 @@
               <sz val="10"/>
               <u val="single"/>
             </rPr>
-            <t xml:space="preserve">Принял (Заказчик)Заместитель директора Филиала №6</t>
+            <t xml:space="preserve">Принял (Заказчик)Заместитель директора Филиала №15</t>
           </r>
           <r>
             <t xml:space="preserve">  /_________________/</t>
           </r>
         </is>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" customHeight="1" ht="11.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+    <row r="39" spans="1:8" customHeight="1" ht="11.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="18" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
